--- a/results/accel-glmm-results/habitat/np/glmm_multi_comp_hab_np.xlsx
+++ b/results/accel-glmm-results/habitat/np/glmm_multi_comp_hab_np.xlsx
@@ -1,85 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\CU\Data\toronto-lmb-np-accel\results\accel-glmm-results\habitat\np\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5C54A3-1F90-4C5B-A586-0561A7F1909D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t xml:space="preserve">term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contrast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">null_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">std_error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df</t>
-  </si>
-  <si>
-    <t xml:space="preserve">null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statistic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adj_p_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">habitat_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Deep/Low SAV) / (Shallow/Low SAV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Deep/Low SAV) / (Exposed/Low SAV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Exposed/Low SAV) / (Mod/Dense SAV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Deep/Low SAV) / (Shallow/Dense SAV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Exposed/Low SAV) / (Shallow/Low SAV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Mod/Dense SAV) / (Shallow/Low SAV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Exposed/Low SAV) / (Shallow/Dense SAV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Mod/Dense SAV) / (Shallow/Dense SAV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Deep/Low SAV) / (Mod/Dense SAV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Dense SAV) / (Shallow/Low SAV)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>contrast</t>
+  </si>
+  <si>
+    <t>null_value</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>std_error</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>statistic</t>
+  </si>
+  <si>
+    <t>adj_p_value</t>
+  </si>
+  <si>
+    <t>habitat_type</t>
+  </si>
+  <si>
+    <t>(Deep/Low SAV) / (Shallow/Low SAV)</t>
+  </si>
+  <si>
+    <t>(Deep/Low SAV) / (Exposed/Low SAV)</t>
+  </si>
+  <si>
+    <t>(Exposed/Low SAV) / (Mod/Dense SAV)</t>
+  </si>
+  <si>
+    <t>(Deep/Low SAV) / (Shallow/Dense SAV)</t>
+  </si>
+  <si>
+    <t>(Exposed/Low SAV) / (Shallow/Low SAV)</t>
+  </si>
+  <si>
+    <t>(Mod/Dense SAV) / (Shallow/Low SAV)</t>
+  </si>
+  <si>
+    <t>(Exposed/Low SAV) / (Shallow/Dense SAV)</t>
+  </si>
+  <si>
+    <t>(Mod/Dense SAV) / (Shallow/Dense SAV)</t>
+  </si>
+  <si>
+    <t>(Deep/Low SAV) / (Mod/Dense SAV)</t>
+  </si>
+  <si>
+    <t>(Shallow/Dense SAV) / (Shallow/Low SAV)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -88,12 +95,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,13 +121,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,14 +419,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="35.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,298 +460,298 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.872314278632998</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00579438551304752</v>
-      </c>
-      <c r="F2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.87231427863299804</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.7943855130475203E-3</v>
+      </c>
+      <c r="F2" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
         <v>-20.5652412212116</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000562196455797427</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="I2" s="1">
+        <v>5.6219645579742701E-93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.654368111104927</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0179227786699056</v>
-      </c>
-      <c r="F3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.65436811110492699</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.79227786699056E-2</v>
+      </c>
+      <c r="F3" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
         <v>-15.4835281206643</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000448203335104851</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="I3" s="1">
+        <v>4.4820333510485103E-53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.48977833073645</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0424906288636298</v>
-      </c>
-      <c r="F4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13.9764081030641</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.000000000000000000000000000000000000000000217175343510382</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.4897783307364501</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.2490628863629802E-2</v>
+      </c>
+      <c r="F4" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>13.976408103064101</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.1717534351038198E-43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.87562168950253</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0109572011218277</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.87562168950253005</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.09572011218277E-2</v>
+      </c>
+      <c r="F5" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
         <v>-10.6141223486058</v>
       </c>
-      <c r="I5" t="n">
-        <v>0.00000000000000000000000025619062093407</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="I5" s="1">
+        <v>2.5619062093407E-25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.33306355219551</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0368950240909593</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10.3870031529985</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.00000000000000000000000284140950347992</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.3330635521955101</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.6895024090959301E-2</v>
+      </c>
+      <c r="F6" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10.387003152998499</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.8414095034799201E-24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.894806646527426</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.00967593966410784</v>
-      </c>
-      <c r="F7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-10.2786534298822</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.00000000000000000000000879477292896442</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.89480664652742603</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9.6759396641078396E-3</v>
+      </c>
+      <c r="F7" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-10.278653429882199</v>
+      </c>
+      <c r="I7" s="1">
+        <v>8.7947729289644202E-24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
         <v>1.3381179104587</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.0399377287555533</v>
-      </c>
-      <c r="F8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9.75883449690735</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0000000000000000000016908719353048</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E8" s="1">
+        <v>3.9937728755553299E-2</v>
+      </c>
+      <c r="F8" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>9.7588344969073493</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.6908719353048E-21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.898199338016429</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0113626236924569</v>
-      </c>
-      <c r="F9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-8.48691354073263</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.000000000000000212197520211662</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.89819933801642904</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.13626236924569E-2</v>
+      </c>
+      <c r="F9" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-8.4869135407326297</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2.1219752021166201E-16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.97486343224906</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.0088272463478212</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-2.81151815602372</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.0493083078142947</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.97486343224906002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8.8272463478211993E-3</v>
+      </c>
+      <c r="F10" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-2.8115181560237201</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4.9308307814294697E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.99622278558288</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0139424333069365</v>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.99622278558288002</v>
+      </c>
+      <c r="E11">
+        <v>1.3942433306936499E-2</v>
       </c>
       <c r="F11" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-0.270402709551459</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>-0.27040270955145901</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/results/accel-glmm-results/habitat/np/glmm_multi_comp_hab_np.xlsx
+++ b/results/accel-glmm-results/habitat/np/glmm_multi_comp_hab_np.xlsx
@@ -1,92 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\CU\Data\toronto-lmb-np-accel\results\accel-glmm-results\habitat\np\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5C54A3-1F90-4C5B-A586-0561A7F1909D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>contrast</t>
-  </si>
-  <si>
-    <t>null_value</t>
-  </si>
-  <si>
-    <t>ratio</t>
-  </si>
-  <si>
-    <t>std_error</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>statistic</t>
-  </si>
-  <si>
-    <t>adj_p_value</t>
-  </si>
-  <si>
-    <t>habitat_type</t>
-  </si>
-  <si>
-    <t>(Deep/Low SAV) / (Shallow/Low SAV)</t>
-  </si>
-  <si>
-    <t>(Deep/Low SAV) / (Exposed/Low SAV)</t>
-  </si>
-  <si>
-    <t>(Exposed/Low SAV) / (Mod/Dense SAV)</t>
-  </si>
-  <si>
-    <t>(Deep/Low SAV) / (Shallow/Dense SAV)</t>
-  </si>
-  <si>
-    <t>(Exposed/Low SAV) / (Shallow/Low SAV)</t>
-  </si>
-  <si>
-    <t>(Mod/Dense SAV) / (Shallow/Low SAV)</t>
-  </si>
-  <si>
-    <t>(Exposed/Low SAV) / (Shallow/Dense SAV)</t>
-  </si>
-  <si>
-    <t>(Mod/Dense SAV) / (Shallow/Dense SAV)</t>
-  </si>
-  <si>
-    <t>(Deep/Low SAV) / (Mod/Dense SAV)</t>
-  </si>
-  <si>
-    <t>(Shallow/Dense SAV) / (Shallow/Low SAV)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t xml:space="preserve">term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contrast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std_error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statistic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj_p_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Exposed/Low SAV) / (Shallow/Dense SAV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Deep/Low SAV) / (Exposed/Low SAV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Exposed/Low SAV) / (Mod/Dense SAV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Exposed/Low SAV) / (Shallow/Low SAV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Deep/Low SAV) / (Shallow/Low SAV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Mod/Dense SAV) / (Shallow/Low SAV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Deep/Low SAV) / (Mod/Dense SAV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Deep/Low SAV) / (Shallow/Dense SAV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Mod/Dense SAV) / (Shallow/Dense SAV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shallow/Dense SAV) / (Shallow/Low SAV)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -95,18 +88,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,23 +108,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -419,19 +396,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="35.77734375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,298 +432,298 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.87231427863299804</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5.7943855130475203E-3</v>
-      </c>
-      <c r="F2" s="1" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>-20.5652412212116</v>
-      </c>
-      <c r="I2" s="1">
-        <v>5.6219645579742701E-93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.60037944757589</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.100327247965264</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7.50108924903183</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.00000000000063289677593219</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.65436811110492699</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.79227786699056E-2</v>
-      </c>
-      <c r="F3" s="1" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>-15.4835281206643</v>
-      </c>
-      <c r="I3" s="1">
-        <v>4.4820333510485103E-53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.645242209365243</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0493028779106253</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-5.73393821542493</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0000000981250882300578</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.4897783307364501</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4.2490628863629802E-2</v>
-      </c>
-      <c r="F4" s="1" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>13.976408103064101</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2.1717534351038198E-43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.51864866447747</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.117224411186616</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.41289267108402</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.000000620146648571786</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.87562168950253005</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.09572011218277E-2</v>
-      </c>
-      <c r="F5" s="1" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>-10.6141223486058</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2.5619062093407E-25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.45730366212325</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.11135361515051</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.92847004903352</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.00000828760360833113</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.3330635521955101</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3.6895024090959301E-2</v>
-      </c>
-      <c r="F6" s="1" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>10.387003152998499</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2.8414095034799201E-24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.940313834664464</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0166889059696518</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-3.46747780823365</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.00525367119779436</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.89480664652742603</v>
-      </c>
-      <c r="E7" s="1">
-        <v>9.6759396641078396E-3</v>
-      </c>
-      <c r="F7" s="1" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>-10.278653429882199</v>
-      </c>
-      <c r="I7" s="1">
-        <v>8.7947729289644202E-24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.959605533663491</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0211081470189804</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-1.87450831582022</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.608603969645581</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.3381179104587</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3.9937728755553299E-2</v>
-      </c>
-      <c r="F8" s="1" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>9.7588344969073493</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1.6908719353048E-21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.979896219517016</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0161770855270936</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-1.23015554803184</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.89819933801642904</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1.13626236924569E-2</v>
-      </c>
-      <c r="F9" s="1" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>-8.4869135407326297</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2.1219752021166201E-16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.0326323705766</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.067816047448354</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.488956652099183</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.97486343224906002</v>
-      </c>
-      <c r="E10" s="1">
-        <v>8.8272463478211993E-3</v>
-      </c>
-      <c r="F10" s="1" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>-2.8115181560237201</v>
-      </c>
-      <c r="I10" s="1">
-        <v>4.9308307814294697E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.05381809829369</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0715022702715804</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.772576724493789</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0.99622278558288002</v>
-      </c>
-      <c r="E11">
-        <v>1.3942433306936499E-2</v>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.910598836001446</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0605488787237168</v>
       </c>
       <c r="F11" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>-0.27040270955145901</v>
-      </c>
-      <c r="I11">
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1.408451547789</v>
+      </c>
+      <c r="I11" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/results/accel-glmm-results/habitat/np/glmm_multi_comp_hab_np.xlsx
+++ b/results/accel-glmm-results/habitat/np/glmm_multi_comp_hab_np.xlsx
@@ -44,24 +44,27 @@
     <t xml:space="preserve">habitat_type</t>
   </si>
   <si>
+    <t xml:space="preserve">(Deep/Low SAV) / (Exposed/Low SAV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Exposed/Low SAV) / (Mod/Dense SAV)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(Exposed/Low SAV) / (Shallow/Dense SAV)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Deep/Low SAV) / (Exposed/Low SAV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Exposed/Low SAV) / (Mod/Dense SAV)</t>
+    <t xml:space="preserve">(Deep/Low SAV) / (Shallow/Low SAV)</t>
   </si>
   <si>
     <t xml:space="preserve">(Exposed/Low SAV) / (Shallow/Low SAV)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Deep/Low SAV) / (Shallow/Low SAV)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(Mod/Dense SAV) / (Shallow/Low SAV)</t>
   </si>
   <si>
+    <t xml:space="preserve">(Shallow/Dense SAV) / (Shallow/Low SAV)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(Deep/Low SAV) / (Mod/Dense SAV)</t>
   </si>
   <si>
@@ -69,9 +72,6 @@
   </si>
   <si>
     <t xml:space="preserve">(Mod/Dense SAV) / (Shallow/Dense SAV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Dense SAV) / (Shallow/Low SAV)</t>
   </si>
 </sst>
 </file>
@@ -443,10 +443,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.60037944757589</v>
+        <v>0.792764447167322</v>
       </c>
       <c r="E2" t="n">
-        <v>0.100327247965264</v>
+        <v>0.0122161963586223</v>
       </c>
       <c r="F2" t="e">
         <v>#NUM!</v>
@@ -455,10 +455,10 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>7.50108924903183</v>
+        <v>-15.0704033942816</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00000000000063289677593219</v>
+        <v>0.0000000000000000000000000000000000000000000000000253560129516999</v>
       </c>
     </row>
     <row r="3">
@@ -472,10 +472,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.645242209365243</v>
+        <v>1.2442487362932</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0493028779106253</v>
+        <v>0.0198818323656434</v>
       </c>
       <c r="F3" t="e">
         <v>#NUM!</v>
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>-5.73393821542493</v>
+        <v>13.6762077146346</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0000000981250882300578</v>
+        <v>0.0000000000000000000000000000000000000000140849157127503</v>
       </c>
     </row>
     <row r="4">
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.51864866447747</v>
+        <v>1.25959786863902</v>
       </c>
       <c r="E4" t="n">
-        <v>0.117224411186616</v>
+        <v>0.0216322800537485</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -513,10 +513,10 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>5.41289267108402</v>
+        <v>13.4385170327407</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000000620146648571786</v>
+        <v>0.000000000000000000000000000000000000000359570400077847</v>
       </c>
     </row>
     <row r="5">
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.45730366212325</v>
+        <v>0.947952594928598</v>
       </c>
       <c r="E5" t="n">
-        <v>0.11135361515051</v>
+        <v>0.0039164362623695</v>
       </c>
       <c r="F5" t="e">
         <v>#NUM!</v>
@@ -542,10 +542,10 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>4.92847004903352</v>
+        <v>-12.9374781973715</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00000828760360833113</v>
+        <v>0.00000000000000000000000000000000000027655926880218</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.940313834664464</v>
+        <v>1.19575568545712</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0166889059696518</v>
+        <v>0.0187025858357287</v>
       </c>
       <c r="F6" t="e">
         <v>#NUM!</v>
@@ -571,10 +571,10 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>-3.46747780823365</v>
+        <v>11.4302503534364</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00525367119779436</v>
+        <v>0.0000000000000000000000000000295256326507579</v>
       </c>
     </row>
     <row r="7">
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.959605533663491</v>
+        <v>0.961026240636946</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0211081470189804</v>
+        <v>0.00631926663580832</v>
       </c>
       <c r="F7" t="e">
         <v>#NUM!</v>
@@ -600,10 +600,10 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.87450831582022</v>
+        <v>-6.04567288632263</v>
       </c>
       <c r="I7" t="n">
-        <v>0.608603969645581</v>
+        <v>0.0000000148787703422299</v>
       </c>
     </row>
     <row r="8">
@@ -617,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.979896219517016</v>
+        <v>0.949315424572066</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0161770855270936</v>
+        <v>0.00843461780459183</v>
       </c>
       <c r="F8" t="e">
         <v>#NUM!</v>
@@ -629,10 +629,10 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.23015554803184</v>
+        <v>-5.8541887015342</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0.0000000479344132686937</v>
       </c>
     </row>
     <row r="9">
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.0326323705766</v>
+        <v>0.986396161566116</v>
       </c>
       <c r="E9" t="n">
-        <v>0.067816047448354</v>
+        <v>0.00539156003800784</v>
       </c>
       <c r="F9" t="e">
         <v>#NUM!</v>
@@ -658,10 +658,10 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.488956652099183</v>
+        <v>-2.50593217051231</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0.122129046086697</v>
       </c>
     </row>
     <row r="10">
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.05381809829369</v>
+        <v>0.998564407984751</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0715022702715804</v>
+        <v>0.00794736347564217</v>
       </c>
       <c r="F10" t="e">
         <v>#NUM!</v>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.772576724493789</v>
+        <v>-0.180507795316859</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.910598836001446</v>
+        <v>1.01233606424351</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0605488787237168</v>
+        <v>0.00862212494659611</v>
       </c>
       <c r="F11" t="e">
         <v>#NUM!</v>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.408451547789</v>
+        <v>1.43953405871573</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>

--- a/results/accel-glmm-results/habitat/np/glmm_multi_comp_hab_np.xlsx
+++ b/results/accel-glmm-results/habitat/np/glmm_multi_comp_hab_np.xlsx
@@ -443,10 +443,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.792764447167322</v>
+        <v>0.792764447166808</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0122161963586223</v>
+        <v>0.0122161963586015</v>
       </c>
       <c r="F2" t="e">
         <v>#NUM!</v>
@@ -455,10 +455,10 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>-15.0704033942816</v>
+        <v>-15.0704033943397</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000253560129516999</v>
+        <v>0.0000000000000000000000000000000000000000000000000253560129294141</v>
       </c>
     </row>
     <row r="3">
@@ -472,10 +472,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.2442487362932</v>
+        <v>1.24424873629424</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0198818323656434</v>
+        <v>0.0198818323656406</v>
       </c>
       <c r="F3" t="e">
         <v>#NUM!</v>
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>13.6762077146346</v>
+        <v>13.6762077147005</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0000000000000000000000000000000000000000140849157127503</v>
+        <v>0.0000000000000000000000000000000000000000140849156999921</v>
       </c>
     </row>
     <row r="4">
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.25959786863902</v>
+        <v>1.25959786863977</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0216322800537485</v>
+        <v>0.0216322800537411</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -513,10 +513,10 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>13.4385170327407</v>
+        <v>13.4385170327877</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000000000000000000000000000000000000000359570400077847</v>
+        <v>0.000000000000000000000000000000000000000359570399849276</v>
       </c>
     </row>
     <row r="5">
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.947952594928598</v>
+        <v>0.947952594928582</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0039164362623695</v>
+        <v>0.00391643626236897</v>
       </c>
       <c r="F5" t="e">
         <v>#NUM!</v>
@@ -542,10 +542,10 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>-12.9374781973715</v>
+        <v>-12.9374781973771</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00000000000000000000000000000000000027655926880218</v>
+        <v>0.000000000000000000000000000000000000276559268781818</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.19575568545712</v>
+        <v>1.19575568545788</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0187025858357287</v>
+        <v>0.0187025858357206</v>
       </c>
       <c r="F6" t="e">
         <v>#NUM!</v>
@@ -571,10 +571,10 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>11.4302503534364</v>
+        <v>11.4302503534889</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0000000000000000000000000000295256326507579</v>
+        <v>0.0000000000000000000000000000295256326329093</v>
       </c>
     </row>
     <row r="7">
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.961026240636946</v>
+        <v>0.961026240636748</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00631926663580832</v>
+        <v>0.00631926663580724</v>
       </c>
       <c r="F7" t="e">
         <v>#NUM!</v>
@@ -600,10 +600,10 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-6.04567288632263</v>
+        <v>-6.04567288635383</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0000000148787703422299</v>
+        <v>0.00000001487877033935</v>
       </c>
     </row>
     <row r="8">
@@ -617,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.949315424572066</v>
+        <v>0.949315424572103</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00843461780459183</v>
+        <v>0.00843461780459022</v>
       </c>
       <c r="F8" t="e">
         <v>#NUM!</v>
@@ -629,10 +629,10 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.8541887015342</v>
+        <v>-5.85418870153116</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0000000479344132686937</v>
+        <v>0.0000000479344132695694</v>
       </c>
     </row>
     <row r="9">
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.986396161566116</v>
+        <v>0.986396161566302</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00539156003800784</v>
+        <v>0.00539156003800922</v>
       </c>
       <c r="F9" t="e">
         <v>#NUM!</v>
@@ -658,10 +658,10 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.50593217051231</v>
+        <v>-2.50593217047749</v>
       </c>
       <c r="I9" t="n">
-        <v>0.122129046086697</v>
+        <v>0.122129046098726</v>
       </c>
     </row>
     <row r="10">
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.998564407984751</v>
+        <v>0.998564407984695</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00794736347564217</v>
+        <v>0.0079473634756399</v>
       </c>
       <c r="F10" t="e">
         <v>#NUM!</v>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.180507795316859</v>
+        <v>-0.180507795323938</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.01233606424351</v>
+        <v>1.01233606424327</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00862212494659611</v>
+        <v>0.00862212494659254</v>
       </c>
       <c r="F11" t="e">
         <v>#NUM!</v>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.43953405871573</v>
+        <v>1.43953405868715</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>

--- a/results/accel-glmm-results/habitat/np/glmm_multi_comp_hab_np.xlsx
+++ b/results/accel-glmm-results/habitat/np/glmm_multi_comp_hab_np.xlsx
@@ -443,10 +443,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.792764447166808</v>
+        <v>0.792764447167322</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0122161963586015</v>
+        <v>0.0122161963586223</v>
       </c>
       <c r="F2" t="e">
         <v>#NUM!</v>
@@ -455,10 +455,10 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>-15.0704033943397</v>
+        <v>-15.0704033942816</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000253560129294141</v>
+        <v>0.0000000000000000000000000000000000000000000000000253560129516999</v>
       </c>
     </row>
     <row r="3">
@@ -472,10 +472,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.24424873629424</v>
+        <v>1.2442487362932</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0198818323656406</v>
+        <v>0.0198818323656434</v>
       </c>
       <c r="F3" t="e">
         <v>#NUM!</v>
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>13.6762077147005</v>
+        <v>13.6762077146346</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0000000000000000000000000000000000000000140849156999921</v>
+        <v>0.0000000000000000000000000000000000000000140849157127503</v>
       </c>
     </row>
     <row r="4">
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.25959786863977</v>
+        <v>1.25959786863902</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0216322800537411</v>
+        <v>0.0216322800537485</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -513,10 +513,10 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>13.4385170327877</v>
+        <v>13.4385170327407</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000000000000000000000000000000000000000359570399849276</v>
+        <v>0.000000000000000000000000000000000000000359570400077847</v>
       </c>
     </row>
     <row r="5">
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.947952594928582</v>
+        <v>0.947952594928598</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00391643626236897</v>
+        <v>0.0039164362623695</v>
       </c>
       <c r="F5" t="e">
         <v>#NUM!</v>
@@ -542,10 +542,10 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>-12.9374781973771</v>
+        <v>-12.9374781973715</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000000000000000000000000000000000000276559268781818</v>
+        <v>0.00000000000000000000000000000000000027655926880218</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.19575568545788</v>
+        <v>1.19575568545712</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0187025858357206</v>
+        <v>0.0187025858357287</v>
       </c>
       <c r="F6" t="e">
         <v>#NUM!</v>
@@ -571,10 +571,10 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>11.4302503534889</v>
+        <v>11.4302503534364</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0000000000000000000000000000295256326329093</v>
+        <v>0.0000000000000000000000000000295256326507579</v>
       </c>
     </row>
     <row r="7">
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.961026240636748</v>
+        <v>0.961026240636946</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00631926663580724</v>
+        <v>0.00631926663580832</v>
       </c>
       <c r="F7" t="e">
         <v>#NUM!</v>
@@ -600,10 +600,10 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-6.04567288635383</v>
+        <v>-6.04567288632263</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00000001487877033935</v>
+        <v>0.0000000148787703422299</v>
       </c>
     </row>
     <row r="8">
@@ -617,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.949315424572103</v>
+        <v>0.949315424572066</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00843461780459022</v>
+        <v>0.00843461780459183</v>
       </c>
       <c r="F8" t="e">
         <v>#NUM!</v>
@@ -629,10 +629,10 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.85418870153116</v>
+        <v>-5.8541887015342</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0000000479344132695694</v>
+        <v>0.0000000479344132686937</v>
       </c>
     </row>
     <row r="9">
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.986396161566302</v>
+        <v>0.986396161566116</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00539156003800922</v>
+        <v>0.00539156003800784</v>
       </c>
       <c r="F9" t="e">
         <v>#NUM!</v>
@@ -658,10 +658,10 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.50593217047749</v>
+        <v>-2.50593217051231</v>
       </c>
       <c r="I9" t="n">
-        <v>0.122129046098726</v>
+        <v>0.122129046086697</v>
       </c>
     </row>
     <row r="10">
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.998564407984695</v>
+        <v>0.998564407984751</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0079473634756399</v>
+        <v>0.00794736347564217</v>
       </c>
       <c r="F10" t="e">
         <v>#NUM!</v>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.180507795323938</v>
+        <v>-0.180507795316859</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.01233606424327</v>
+        <v>1.01233606424351</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00862212494659254</v>
+        <v>0.00862212494659611</v>
       </c>
       <c r="F11" t="e">
         <v>#NUM!</v>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.43953405868715</v>
+        <v>1.43953405871573</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
